--- a/Data fomat datalogger_ByTech,PLC comment.xlsx
+++ b/Data fomat datalogger_ByTech,PLC comment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\BYT-Hawaco-GW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04AD2EE-78B1-4A1F-8064-B8C9394B3738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A18ADF-CB9E-470D-B6C6-7DFAF2CDC841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1620" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhan cai dat-G1" sheetId="1" r:id="rId1"/>
@@ -1105,7 +1105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{CAC24948-B795-4C25-88C8-40B3695D59F8}">
       <text>
         <r>
           <rPr>
@@ -1130,7 +1130,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>pXc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Số nước mới = MeterIndicator +( Input1 / K )
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1251,7 +1276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
+    <comment ref="O28" authorId="0" shapeId="0" xr:uid="{D8F522C6-1274-4F48-BEFA-F3A6BCD30066}">
       <text>
         <r>
           <rPr>
@@ -1275,7 +1300,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="P28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
+    <comment ref="P28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pXc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Kiểu dữ liệu đọc về: int16, float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1395,7 +1444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
+    <comment ref="O33" authorId="0" shapeId="0" xr:uid="{2E5B997A-93B0-419A-8C11-C20D4F47BE63}">
       <text>
         <r>
           <rPr>
@@ -1419,7 +1468,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="P33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
+    <comment ref="P33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pXc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Kiểu dữ liệu đọc về: int16, float</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1842,7 +1915,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="243">
   <si>
     <t>ID Datalogger</t>
   </si>
@@ -2567,6 +2640,30 @@
   </si>
   <si>
     <t>Ngõ vào direction Smeter2 trong trường hợp dùng mode thuận ngược</t>
+  </si>
+  <si>
+    <t>K_J2</t>
+  </si>
+  <si>
+    <t>hệ số K của smeter1</t>
+  </si>
+  <si>
+    <t>hệ số K của smeter2</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Server address</t>
+  </si>
+  <si>
+    <t>http://abc.vn</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Trễ x giây gửi data lên server</t>
   </si>
 </sst>
 </file>
@@ -2781,7 +2878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2845,6 +2942,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2863,7 +2961,39 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3340,362 +3470,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P33"/>
+  <dimension ref="A2:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="26.7109375" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="43" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="43" customWidth="1"/>
+    <col min="4" max="4" width="18" style="43" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="43" customWidth="1"/>
+    <col min="7" max="8" width="22.7109375" style="43" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="43" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="43" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" style="43" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="43" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" style="43" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="43" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="P2" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="43" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="P3" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="28"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="43">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="43">
         <v>60</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="43">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="43">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="43">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="43">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="43">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="43">
         <v>1</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="41">
         <v>123456</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="45">
         <v>1</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="28">
         <v>1</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="43">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
+      <c r="P5" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q5">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
       <c r="P8" s="14"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J9" s="14" t="s">
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="J9" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
       <c r="P9" s="14"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J10" s="14" t="s">
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="J10" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
       <c r="P10" s="14"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
       <c r="P11" s="14"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J12" s="14" t="s">
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="J12" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
       <c r="P12" s="14"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J13" s="14" t="s">
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="J13" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
       <c r="P13" s="14"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
+      <c r="Q13" s="14"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
       <c r="P14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J15" s="14" t="s">
+      <c r="Q14" s="14"/>
+    </row>
+    <row r="15" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="J15" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
       <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
     </row>
     <row r="18" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="40" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H19">
+      <c r="H19" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H20" t="s">
+      <c r="H20" s="43" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H22" t="s">
+    <row r="22" spans="8:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H22" s="43" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H23" t="s">
+    <row r="23" spans="8:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H23" s="43" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
+    <row r="24" spans="8:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="H24" s="43" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="26" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="40" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="28" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H28">
+      <c r="H28" s="43">
         <v>1</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="43">
         <v>30001</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="43">
         <v>2</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="43" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="31" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="40" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H33">
+      <c r="H33" s="43">
         <v>2</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="43">
         <v>40001</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="43">
         <v>2</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="43" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M5" r:id="rId1" xr:uid="{EE55FAF2-1F78-4244-AF2E-14E49626AAC0}"/>
+    <hyperlink ref="P5" r:id="rId2" xr:uid="{3F2972AA-4F64-48BA-A991-521EBE186EC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3703,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3926,10 +4086,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:T33"/>
+  <dimension ref="A2:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3944,13 +4104,14 @@
     <col min="11" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="21.28515625" customWidth="1"/>
     <col min="13" max="14" width="22.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="17" max="17" width="34.28515625" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
+    <col min="18" max="18" width="34.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
@@ -3996,17 +4157,26 @@
       <c r="O2" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T2" t="s">
+        <v>238</v>
+      </c>
+      <c r="U2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4050,25 +4220,35 @@
         <v>29</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>190</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>239</v>
+      </c>
+      <c r="U3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -4114,17 +4294,26 @@
       <c r="O5" s="13">
         <v>1</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="13">
         <v>1</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="8">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
         <v>193</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T5" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="U5">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
@@ -4133,8 +4322,9 @@
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="14"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M9" s="14" t="s">
         <v>30</v>
       </c>
@@ -4145,8 +4335,9 @@
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="14"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M10" s="14" t="s">
         <v>33</v>
       </c>
@@ -4157,8 +4348,9 @@
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="14"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
@@ -4167,8 +4359,9 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="14"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M12" s="14" t="s">
         <v>31</v>
       </c>
@@ -4179,8 +4372,9 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" s="14"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M13" s="14" t="s">
         <v>32</v>
       </c>
@@ -4191,8 +4385,9 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" s="14"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I14" s="29" t="s">
         <v>181</v>
       </c>
@@ -4204,8 +4399,9 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="14"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I15" s="30" t="s">
         <v>182</v>
       </c>
@@ -4219,18 +4415,19 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" s="14"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I16" s="29" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I17" s="30" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I18" s="29" t="s">
         <v>185</v>
       </c>
@@ -4238,7 +4435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I19" s="30" t="s">
         <v>186</v>
       </c>
@@ -4246,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I20" s="30" t="s">
         <v>187</v>
       </c>
@@ -4254,12 +4451,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I23" s="29" t="s">
         <v>210</v>
       </c>
@@ -4267,7 +4464,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I24" s="29" t="s">
         <v>211</v>
       </c>
@@ -4275,12 +4472,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I25" s="29" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
         <v>215</v>
       </c>
@@ -4298,15 +4495,18 @@
         <v>164</v>
       </c>
       <c r="P26" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q26" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I27" s="29" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I28" s="29" t="s">
         <v>214</v>
       </c>
@@ -4323,10 +4523,13 @@
         <v>165</v>
       </c>
       <c r="P28" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:17" x14ac:dyDescent="0.25">
       <c r="K31" s="3" t="s">
         <v>161</v>
       </c>
@@ -4341,10 +4544,13 @@
         <v>170</v>
       </c>
       <c r="P31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q31" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:17" x14ac:dyDescent="0.25">
       <c r="K33">
         <v>2</v>
       </c>
@@ -4358,13 +4564,19 @@
         <v>165</v>
       </c>
       <c r="P33" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q33" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T5" r:id="rId1" xr:uid="{43106A11-763C-4094-B5DE-9DD618B00409}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5107,14 +5319,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
@@ -5129,16 +5341,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>66</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -5155,10 +5367,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="33"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="18" t="s">
         <v>69</v>
       </c>
@@ -5643,7 +5855,7 @@
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="32" t="s">
         <v>115</v>
       </c>
       <c r="H36" s="21" t="s">
@@ -5661,7 +5873,7 @@
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
-      <c r="G37" s="32"/>
+      <c r="G37" s="33"/>
       <c r="H37" s="22" t="s">
         <v>111</v>
       </c>
